--- a/biology/Botanique/Calceolariaceae/Calceolariaceae.xlsx
+++ b/biology/Botanique/Calceolariaceae/Calceolariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Calceolariaceae (Calcéolariacées) est une famille de plantes dicotylédones qui comprend environ 260 espèces réparties en 2 à 3 genres.
 Ce sont des plantes herbacées ou des arbustes, des régions tempérées chaudes ou des hautes terres tropicales, originaires d'Amérique du Sud et de Nouvelle-Zélande.
@@ -513,11 +525,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Calceolaria , qui vient du latin Calceol, « petit soulier » (calceus chaussure, venant de calx, talon, pied), en référence à la forme de la fleur dont « la lèvre inférieure de la corolle, creuse et renflée, ressemble à un petit sabot »[1].
-Alexandre de Théis ajoute à son étymologie la précision suivante : « Ce nom n’a pas de  rapport, comme on pourrait le croire, avec un botaniste italien nommé François Calceolari[note 1],[1] ».
-La plante a été décrite et nommée en 1725 par Louis Feuillée (1660-1732)[note 2], explorateur, botaniste, géographe et astronome français, qui découvrit deux exemplaires de ce genre au Pérou et au Chili, qu'il nomma respectivement Calceolaria folii Scabiosa vulgaris et Calceolaria Salvia folio, « vulgo Chachaul »[2], et dont il note les utilisations médicinales locales.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Calceolaria , qui vient du latin Calceol, « petit soulier » (calceus chaussure, venant de calx, talon, pied), en référence à la forme de la fleur dont « la lèvre inférieure de la corolle, creuse et renflée, ressemble à un petit sabot ».
+Alexandre de Théis ajoute à son étymologie la précision suivante : « Ce nom n’a pas de  rapport, comme on pourrait le croire, avec un botaniste italien nommé François Calceolari[note 1], ».
+La plante a été décrite et nommée en 1725 par Louis Feuillée (1660-1732)[note 2], explorateur, botaniste, géographe et astronome français, qui découvrit deux exemplaires de ce genre au Pérou et au Chili, qu'il nomma respectivement Calceolaria folii Scabiosa vulgaris et Calceolaria Salvia folio, « vulgo Chachaul », et dont il note les utilisations médicinales locales.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En classification classique, le genre faisant partie des Scrophulariaceae.
 La classification phylogénétique la sépare cette famille et la situe dans l'ordre des Lamiales.
@@ -578,16 +594,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (8 mai 2017)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (8 mai 2017) :
 genre Calceolaria L. (Syn. Porodittia G. Don, Stemotria Wettstein &amp; Harms)
 genre Jovellana Ruiz &amp; Pavon
-Selon Catalogue of Life                                   (8 mai 2017)[4] et NCBI  (8 mai 2017)[5] :
+Selon Catalogue of Life                                   (8 mai 2017) et NCBI  (8 mai 2017) :
 genre Calceolaria
 genre Jovellana
 genre Porodittia (considéré comme syn. de Calceolaria)
-Selon ITIS      (8 mai 2017)[6] :
+Selon ITIS      (8 mai 2017) :
 genre Calceolaria</t>
         </is>
       </c>
@@ -616,9 +634,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (8 mai 2017)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (8 mai 2017) :
 genre Calceolaria
 Calceolaria angustifolia
 Calceolaria arachnoidea
